--- a/tests/testthat/testdata/discovery_national_archives/discovery_national_archives.xlsx
+++ b/tests/testthat/testdata/discovery_national_archives/discovery_national_archives.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>9514</v>
+        <v>8884</v>
       </c>
       <c r="F2" s="2">
         <v>44255</v>
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>15968</v>
+        <v>14450</v>
       </c>
       <c r="F3" s="2">
         <v>44255</v>
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>7215</v>
+        <v>6487</v>
       </c>
       <c r="F4" s="2">
         <v>44255</v>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>4119</v>
+        <v>3949</v>
       </c>
       <c r="F5" s="2">
         <v>44255</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>19350</v>
+        <v>8646</v>
       </c>
       <c r="F6" s="2">
         <v>44255</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E7">
-        <v>19259</v>
+        <v>17249</v>
       </c>
       <c r="F7" s="2">
         <v>44255</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="E8">
-        <v>14747</v>
+        <v>17408</v>
       </c>
       <c r="F8" s="2">
         <v>44255</v>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E9">
-        <v>7754</v>
+        <v>13802</v>
       </c>
       <c r="F9" s="2">
         <v>44255</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="E10">
-        <v>16871</v>
+        <v>19865</v>
       </c>
       <c r="F10" s="2">
         <v>44255</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>2139</v>
+        <v>14936</v>
       </c>
       <c r="F11" s="2">
         <v>44255</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="E12">
-        <v>18699</v>
+        <v>3919</v>
       </c>
       <c r="F12" s="2">
         <v>44255</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>2111</v>
+        <v>10156</v>
       </c>
       <c r="F13" s="2">
         <v>44255</v>

--- a/tests/testthat/testdata/discovery_national_archives/discovery_national_archives.xlsx
+++ b/tests/testthat/testdata/discovery_national_archives/discovery_national_archives.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>8884</v>
+        <v>5467</v>
       </c>
       <c r="F2" s="2">
         <v>44255</v>
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>14450</v>
+        <v>17848</v>
       </c>
       <c r="F3" s="2">
         <v>44255</v>
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>6487</v>
+        <v>9798</v>
       </c>
       <c r="F4" s="2">
         <v>44255</v>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>3949</v>
+        <v>7364</v>
       </c>
       <c r="F5" s="2">
         <v>44255</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>8646</v>
+        <v>16486</v>
       </c>
       <c r="F6" s="2">
         <v>44255</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E7">
-        <v>17249</v>
+        <v>19686</v>
       </c>
       <c r="F7" s="2">
         <v>44255</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="E8">
-        <v>17408</v>
+        <v>5812</v>
       </c>
       <c r="F8" s="2">
         <v>44255</v>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E9">
-        <v>13802</v>
+        <v>13069</v>
       </c>
       <c r="F9" s="2">
         <v>44255</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="E10">
-        <v>19865</v>
+        <v>1434</v>
       </c>
       <c r="F10" s="2">
         <v>44255</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>14936</v>
+        <v>2046</v>
       </c>
       <c r="F11" s="2">
         <v>44255</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="E12">
-        <v>3919</v>
+        <v>3785</v>
       </c>
       <c r="F12" s="2">
         <v>44255</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>10156</v>
+        <v>15853</v>
       </c>
       <c r="F13" s="2">
         <v>44255</v>

--- a/tests/testthat/testdata/discovery_national_archives/discovery_national_archives.xlsx
+++ b/tests/testthat/testdata/discovery_national_archives/discovery_national_archives.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>5467</v>
+        <v>5337</v>
       </c>
       <c r="F2" s="2">
         <v>44255</v>
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>17848</v>
+        <v>10711</v>
       </c>
       <c r="F3" s="2">
         <v>44255</v>
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>9798</v>
+        <v>14139</v>
       </c>
       <c r="F4" s="2">
         <v>44255</v>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>7364</v>
+        <v>9677</v>
       </c>
       <c r="F5" s="2">
         <v>44255</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>16486</v>
+        <v>4914</v>
       </c>
       <c r="F6" s="2">
         <v>44255</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E7">
-        <v>19686</v>
+        <v>9715</v>
       </c>
       <c r="F7" s="2">
         <v>44255</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="E8">
-        <v>5812</v>
+        <v>9914</v>
       </c>
       <c r="F8" s="2">
         <v>44255</v>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E9">
-        <v>13069</v>
+        <v>10246</v>
       </c>
       <c r="F9" s="2">
         <v>44255</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="E10">
-        <v>1434</v>
+        <v>13883</v>
       </c>
       <c r="F10" s="2">
         <v>44255</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>2046</v>
+        <v>1920</v>
       </c>
       <c r="F11" s="2">
         <v>44255</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="E12">
-        <v>3785</v>
+        <v>13323</v>
       </c>
       <c r="F12" s="2">
         <v>44255</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>15853</v>
+        <v>3046</v>
       </c>
       <c r="F13" s="2">
         <v>44255</v>

--- a/tests/testthat/testdata/discovery_national_archives/discovery_national_archives.xlsx
+++ b/tests/testthat/testdata/discovery_national_archives/discovery_national_archives.xlsx
@@ -418,7 +418,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>5337</v>
+        <v>18650</v>
       </c>
       <c r="F2" s="2">
         <v>44255</v>
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>10711</v>
+        <v>11807</v>
       </c>
       <c r="F3" s="2">
         <v>44255</v>
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="E4">
-        <v>14139</v>
+        <v>12839</v>
       </c>
       <c r="F4" s="2">
         <v>44255</v>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>9677</v>
+        <v>8604</v>
       </c>
       <c r="F5" s="2">
         <v>44255</v>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="E6">
-        <v>4914</v>
+        <v>16563</v>
       </c>
       <c r="F6" s="2">
         <v>44255</v>
@@ -558,7 +558,7 @@
         </is>
       </c>
       <c r="E7">
-        <v>9715</v>
+        <v>3264</v>
       </c>
       <c r="F7" s="2">
         <v>44255</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="E8">
-        <v>9914</v>
+        <v>12426</v>
       </c>
       <c r="F8" s="2">
         <v>44255</v>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="E9">
-        <v>10246</v>
+        <v>1083</v>
       </c>
       <c r="F9" s="2">
         <v>44255</v>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="E10">
-        <v>13883</v>
+        <v>9518</v>
       </c>
       <c r="F10" s="2">
         <v>44255</v>
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="E11">
-        <v>1920</v>
+        <v>18685</v>
       </c>
       <c r="F11" s="2">
         <v>44255</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="E12">
-        <v>13323</v>
+        <v>3876</v>
       </c>
       <c r="F12" s="2">
         <v>44255</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>3046</v>
+        <v>7879</v>
       </c>
       <c r="F13" s="2">
         <v>44255</v>
